--- a/apna_college_dsa_sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/apna_college_dsa_sheet/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -2144,9 +2144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41">
@@ -2310,7 +2310,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2324,30 +2332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2363,7 +2348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2408,6 +2393,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -2417,15 +2418,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,7 +2439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2532,7 +2532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,7 +2544,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,25 +2694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,133 +2712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,22 +2735,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2766,21 +2776,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2809,17 +2804,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2829,149 +2829,149 @@
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3081,22 +3081,24 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3377,8 +3379,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -5864,209 +5866,209 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" s="20" customFormat="1" customHeight="1" spans="1:26">
+    <row r="76" s="18" customFormat="1" customHeight="1" spans="1:26">
       <c r="A76" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B76" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="45"/>
-      <c r="V76" s="45"/>
-      <c r="W76" s="45"/>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
-    </row>
-    <row r="77" s="20" customFormat="1" customHeight="1" spans="1:26">
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+    </row>
+    <row r="77" s="18" customFormat="1" customHeight="1" spans="1:26">
       <c r="A77" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B77" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="45"/>
-      <c r="V77" s="45"/>
-      <c r="W77" s="45"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45"/>
-    </row>
-    <row r="78" s="20" customFormat="1" customHeight="1" spans="1:26">
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+    </row>
+    <row r="78" s="18" customFormat="1" customHeight="1" spans="1:26">
       <c r="A78" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="45"/>
-      <c r="W78" s="45"/>
-      <c r="X78" s="45"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="45"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:26">
-      <c r="A79" s="47" t="s">
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+    </row>
+    <row r="79" s="18" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A79" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:26">
-      <c r="A80" s="47" t="s">
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+    </row>
+    <row r="80" s="18" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A80" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:26">
-      <c r="A81" s="47" t="s">
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+    </row>
+    <row r="81" s="18" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A81" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
     </row>
     <row r="82" customHeight="1" spans="1:26">
       <c r="A82" s="12" t="s">
@@ -7209,7 +7211,7 @@
       <c r="B116" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="45" t="s">
         <v>52</v>
       </c>
       <c r="D116" s="22"/>
@@ -7340,7 +7342,7 @@
       <c r="A120" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="46" t="s">
         <v>199</v>
       </c>
       <c r="C120" s="31" t="s">
@@ -7452,104 +7454,104 @@
       <c r="Y123" s="22"/>
       <c r="Z123" s="22"/>
     </row>
-    <row r="124" customHeight="1" spans="1:26">
-      <c r="A124" s="5" t="s">
+    <row r="124" s="18" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A124" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
-      <c r="T124" s="22"/>
-      <c r="U124" s="22"/>
-      <c r="V124" s="22"/>
-      <c r="W124" s="22"/>
-      <c r="X124" s="22"/>
-      <c r="Y124" s="22"/>
-      <c r="Z124" s="22"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:26">
-      <c r="A125" s="5" t="s">
+      <c r="D124" s="47"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="30"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="30"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="30"/>
+      <c r="R124" s="30"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="30"/>
+      <c r="U124" s="30"/>
+      <c r="V124" s="30"/>
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30"/>
+    </row>
+    <row r="125" s="18" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A125" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D125" s="32"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
-      <c r="T125" s="22"/>
-      <c r="U125" s="22"/>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="22"/>
-      <c r="Y125" s="22"/>
-      <c r="Z125" s="22"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:26">
-      <c r="A126" s="5" t="s">
+      <c r="D125" s="47"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="30"/>
+      <c r="M125" s="30"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="30"/>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="30"/>
+      <c r="R125" s="30"/>
+      <c r="S125" s="30"/>
+      <c r="T125" s="30"/>
+      <c r="U125" s="30"/>
+      <c r="V125" s="30"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="30"/>
+    </row>
+    <row r="126" s="20" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A126" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D126" s="32"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="22"/>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22"/>
-      <c r="T126" s="22"/>
-      <c r="U126" s="22"/>
-      <c r="V126" s="22"/>
-      <c r="W126" s="22"/>
-      <c r="X126" s="22"/>
-      <c r="Y126" s="22"/>
-      <c r="Z126" s="22"/>
+      <c r="D126" s="50"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="51"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="51"/>
+      <c r="O126" s="51"/>
+      <c r="P126" s="51"/>
+      <c r="Q126" s="51"/>
+      <c r="R126" s="51"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="51"/>
+      <c r="U126" s="51"/>
+      <c r="V126" s="51"/>
+      <c r="W126" s="51"/>
+      <c r="X126" s="51"/>
+      <c r="Y126" s="51"/>
+      <c r="Z126" s="51"/>
     </row>
     <row r="127" customHeight="1" spans="1:26">
       <c r="A127" s="5" t="s">
@@ -7591,7 +7593,7 @@
       <c r="B128" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C128" s="50" t="s">
+      <c r="C128" s="52" t="s">
         <v>213</v>
       </c>
       <c r="D128" s="32"/>
@@ -7624,7 +7626,7 @@
       <c r="B129" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="53" t="s">
         <v>215</v>
       </c>
       <c r="D129" s="32"/>
@@ -7894,7 +7896,7 @@
         <v>228</v>
       </c>
       <c r="D137" s="22"/>
-      <c r="E137" s="52"/>
+      <c r="E137" s="54"/>
       <c r="F137" s="22"/>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
@@ -7928,7 +7930,7 @@
         <v>52</v>
       </c>
       <c r="D138" s="22"/>
-      <c r="E138" s="52"/>
+      <c r="E138" s="54"/>
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
@@ -8064,7 +8066,7 @@
         <v>236</v>
       </c>
       <c r="D142" s="22"/>
-      <c r="E142" s="52"/>
+      <c r="E142" s="54"/>
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
@@ -8098,7 +8100,7 @@
         <v>238</v>
       </c>
       <c r="D143" s="22"/>
-      <c r="E143" s="52"/>
+      <c r="E143" s="54"/>
       <c r="F143" s="22"/>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
@@ -8131,10 +8133,10 @@
       <c r="C144" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D144" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="E144" s="52"/>
+      <c r="E144" s="54"/>
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
@@ -8167,7 +8169,7 @@
       <c r="C145" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="55" t="s">
         <v>241</v>
       </c>
       <c r="E145" s="22"/>
@@ -8204,7 +8206,7 @@
         <v>245</v>
       </c>
       <c r="D146" s="22"/>
-      <c r="E146" s="52"/>
+      <c r="E146" s="54"/>
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
@@ -8234,11 +8236,11 @@
       <c r="B147" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="52" t="s">
         <v>247</v>
       </c>
       <c r="D147" s="22"/>
-      <c r="E147" s="52"/>
+      <c r="E147" s="54"/>
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
@@ -8272,7 +8274,7 @@
         <v>249</v>
       </c>
       <c r="D148" s="22"/>
-      <c r="E148" s="52"/>
+      <c r="E148" s="54"/>
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
@@ -8306,7 +8308,7 @@
         <v>251</v>
       </c>
       <c r="D149" s="22"/>
-      <c r="E149" s="52"/>
+      <c r="E149" s="54"/>
       <c r="F149" s="22"/>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
@@ -8334,7 +8336,7 @@
       <c r="B150" s="35"/>
       <c r="C150" s="36"/>
       <c r="D150" s="22"/>
-      <c r="E150" s="52"/>
+      <c r="E150" s="54"/>
       <c r="F150" s="22"/>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
@@ -8431,7 +8433,7 @@
       <c r="C153" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="D153" s="52"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
       <c r="G153" s="22"/>
@@ -8465,7 +8467,7 @@
       <c r="C154" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D154" s="52"/>
+      <c r="D154" s="54"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
       <c r="G154" s="22"/>
@@ -8499,7 +8501,7 @@
       <c r="C155" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D155" s="52"/>
+      <c r="D155" s="54"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
       <c r="G155" s="22"/>
@@ -8533,7 +8535,7 @@
       <c r="C156" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="D156" s="52"/>
+      <c r="D156" s="54"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
@@ -8567,7 +8569,7 @@
       <c r="C157" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D157" s="52"/>
+      <c r="D157" s="54"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
@@ -8601,7 +8603,7 @@
       <c r="C158" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D158" s="52"/>
+      <c r="D158" s="54"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
       <c r="G158" s="22"/>
@@ -8635,7 +8637,7 @@
       <c r="C159" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D159" s="52"/>
+      <c r="D159" s="54"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
       <c r="G159" s="22"/>
@@ -8669,7 +8671,7 @@
       <c r="C160" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="D160" s="52"/>
+      <c r="D160" s="54"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
       <c r="G160" s="22"/>
@@ -9215,7 +9217,7 @@
       <c r="C177" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="D177" s="54"/>
+      <c r="D177" s="56"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
       <c r="G177" s="22"/>
@@ -9249,7 +9251,7 @@
       <c r="C178" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="54"/>
+      <c r="D178" s="56"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
       <c r="G178" s="22"/>
@@ -9275,7 +9277,7 @@
     </row>
     <row r="179" customHeight="1" spans="3:26">
       <c r="C179" s="36"/>
-      <c r="D179" s="54"/>
+      <c r="D179" s="56"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
       <c r="G179" s="22"/>
@@ -9334,7 +9336,7 @@
       <c r="B181" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C181" s="55" t="s">
+      <c r="C181" s="57" t="s">
         <v>303</v>
       </c>
       <c r="D181" s="22"/>
@@ -9368,7 +9370,7 @@
       <c r="B182" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C182" s="55" t="s">
+      <c r="C182" s="57" t="s">
         <v>305</v>
       </c>
       <c r="D182" s="22"/>
@@ -9402,7 +9404,7 @@
       <c r="B183" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C183" s="55" t="s">
+      <c r="C183" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D183" s="22"/>
@@ -9436,7 +9438,7 @@
       <c r="B184" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C184" s="55" t="s">
+      <c r="C184" s="57" t="s">
         <v>107</v>
       </c>
       <c r="D184" s="22"/>
@@ -9470,7 +9472,7 @@
       <c r="B185" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C185" s="55" t="s">
+      <c r="C185" s="57" t="s">
         <v>309</v>
       </c>
       <c r="D185" s="22"/>
@@ -9504,7 +9506,7 @@
       <c r="B186" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C186" s="55"/>
+      <c r="C186" s="57"/>
       <c r="F186" s="22"/>
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
@@ -9534,7 +9536,7 @@
       <c r="B187" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C187" s="55" t="s">
+      <c r="C187" s="57" t="s">
         <v>312</v>
       </c>
       <c r="F187" s="22"/>
@@ -9566,7 +9568,7 @@
       <c r="B188" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C188" s="55" t="s">
+      <c r="C188" s="57" t="s">
         <v>314</v>
       </c>
       <c r="F188" s="22"/>
@@ -9598,7 +9600,7 @@
       <c r="B189" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="55"/>
+      <c r="C189" s="57"/>
       <c r="F189" s="22"/>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
@@ -9628,7 +9630,7 @@
       <c r="B190" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C190" s="55" t="s">
+      <c r="C190" s="57" t="s">
         <v>96</v>
       </c>
       <c r="F190" s="22"/>
@@ -9660,7 +9662,7 @@
       <c r="B191" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C191" s="55" t="s">
+      <c r="C191" s="57" t="s">
         <v>318</v>
       </c>
       <c r="F191" s="22"/>
@@ -9692,7 +9694,7 @@
       <c r="B192" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C192" s="55" t="s">
+      <c r="C192" s="57" t="s">
         <v>320</v>
       </c>
       <c r="F192" s="22"/>
@@ -9724,7 +9726,7 @@
       <c r="B193" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C193" s="55" t="s">
+      <c r="C193" s="57" t="s">
         <v>322</v>
       </c>
       <c r="F193" s="22"/>
@@ -9788,7 +9790,7 @@
       <c r="B195" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C195" s="55" t="s">
+      <c r="C195" s="57" t="s">
         <v>52</v>
       </c>
       <c r="F195" s="22"/>
@@ -10099,7 +10101,7 @@
       </c>
       <c r="D205" s="22"/>
       <c r="E205" s="22"/>
-      <c r="F205" s="54"/>
+      <c r="F205" s="56"/>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
@@ -10133,7 +10135,7 @@
       </c>
       <c r="D206" s="22"/>
       <c r="E206" s="22"/>
-      <c r="F206" s="54"/>
+      <c r="F206" s="56"/>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
@@ -10167,7 +10169,7 @@
       </c>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
-      <c r="F207" s="54"/>
+      <c r="F207" s="56"/>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
@@ -10201,7 +10203,7 @@
       </c>
       <c r="D208" s="22"/>
       <c r="E208" s="22"/>
-      <c r="F208" s="54"/>
+      <c r="F208" s="56"/>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
@@ -10235,7 +10237,7 @@
       </c>
       <c r="D209" s="22"/>
       <c r="E209" s="22"/>
-      <c r="F209" s="54"/>
+      <c r="F209" s="56"/>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
@@ -10269,7 +10271,7 @@
       </c>
       <c r="D210" s="22"/>
       <c r="E210" s="22"/>
-      <c r="F210" s="54"/>
+      <c r="F210" s="56"/>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
@@ -10302,7 +10304,7 @@
         <v>102</v>
       </c>
       <c r="E211" s="22"/>
-      <c r="F211" s="54"/>
+      <c r="F211" s="56"/>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
@@ -10335,7 +10337,7 @@
         <v>349</v>
       </c>
       <c r="E212" s="22"/>
-      <c r="F212" s="54"/>
+      <c r="F212" s="56"/>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
@@ -10368,7 +10370,7 @@
         <v>351</v>
       </c>
       <c r="E213" s="22"/>
-      <c r="F213" s="54"/>
+      <c r="F213" s="56"/>
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
@@ -10401,7 +10403,7 @@
         <v>107</v>
       </c>
       <c r="E214" s="22"/>
-      <c r="F214" s="54"/>
+      <c r="F214" s="56"/>
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
@@ -10434,7 +10436,7 @@
         <v>354</v>
       </c>
       <c r="E215" s="22"/>
-      <c r="F215" s="54"/>
+      <c r="F215" s="56"/>
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
       <c r="I215" s="22"/>
@@ -10467,7 +10469,7 @@
         <v>356</v>
       </c>
       <c r="E216" s="22"/>
-      <c r="F216" s="54"/>
+      <c r="F216" s="56"/>
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
       <c r="I216" s="22"/>
@@ -10500,7 +10502,7 @@
         <v>318</v>
       </c>
       <c r="E217" s="22"/>
-      <c r="F217" s="54"/>
+      <c r="F217" s="56"/>
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
       <c r="I217" s="22"/>
@@ -10533,7 +10535,7 @@
         <v>297</v>
       </c>
       <c r="E218" s="22"/>
-      <c r="F218" s="54"/>
+      <c r="F218" s="56"/>
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
@@ -10567,7 +10569,7 @@
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="22"/>
-      <c r="F219" s="54"/>
+      <c r="F219" s="56"/>
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
@@ -10601,7 +10603,7 @@
       </c>
       <c r="D220" s="22"/>
       <c r="E220" s="22"/>
-      <c r="F220" s="54"/>
+      <c r="F220" s="56"/>
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="22"/>
@@ -10635,7 +10637,7 @@
       </c>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
-      <c r="F221" s="54"/>
+      <c r="F221" s="56"/>
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="22"/>
@@ -10669,7 +10671,7 @@
       </c>
       <c r="D222" s="22"/>
       <c r="E222" s="22"/>
-      <c r="F222" s="54"/>
+      <c r="F222" s="56"/>
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
@@ -10703,7 +10705,7 @@
       </c>
       <c r="D223" s="22"/>
       <c r="E223" s="22"/>
-      <c r="F223" s="54"/>
+      <c r="F223" s="56"/>
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
@@ -10737,7 +10739,7 @@
       </c>
       <c r="D224" s="22"/>
       <c r="E224" s="22"/>
-      <c r="F224" s="54"/>
+      <c r="F224" s="56"/>
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
@@ -10771,7 +10773,7 @@
       </c>
       <c r="D225" s="22"/>
       <c r="E225" s="22"/>
-      <c r="F225" s="54"/>
+      <c r="F225" s="56"/>
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
@@ -10805,7 +10807,7 @@
       </c>
       <c r="D226" s="22"/>
       <c r="E226" s="22"/>
-      <c r="F226" s="54"/>
+      <c r="F226" s="56"/>
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
@@ -10839,7 +10841,7 @@
       </c>
       <c r="D227" s="22"/>
       <c r="E227" s="22"/>
-      <c r="F227" s="54"/>
+      <c r="F227" s="56"/>
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
@@ -10873,7 +10875,7 @@
       </c>
       <c r="D228" s="22"/>
       <c r="E228" s="22"/>
-      <c r="F228" s="54"/>
+      <c r="F228" s="56"/>
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
@@ -10907,7 +10909,7 @@
       </c>
       <c r="D229" s="22"/>
       <c r="E229" s="22"/>
-      <c r="F229" s="54"/>
+      <c r="F229" s="56"/>
       <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
@@ -10941,7 +10943,7 @@
       </c>
       <c r="D230" s="22"/>
       <c r="E230" s="22"/>
-      <c r="F230" s="54"/>
+      <c r="F230" s="56"/>
       <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
@@ -10975,7 +10977,7 @@
       </c>
       <c r="D231" s="22"/>
       <c r="E231" s="22"/>
-      <c r="F231" s="54"/>
+      <c r="F231" s="56"/>
       <c r="G231" s="21"/>
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
@@ -11009,7 +11011,7 @@
       </c>
       <c r="D232" s="22"/>
       <c r="E232" s="22"/>
-      <c r="F232" s="54"/>
+      <c r="F232" s="56"/>
       <c r="G232" s="21"/>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
@@ -11043,7 +11045,7 @@
       </c>
       <c r="D233" s="22"/>
       <c r="E233" s="22"/>
-      <c r="F233" s="54"/>
+      <c r="F233" s="56"/>
       <c r="G233" s="21"/>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
@@ -11077,7 +11079,7 @@
       </c>
       <c r="D234" s="22"/>
       <c r="E234" s="22"/>
-      <c r="F234" s="54"/>
+      <c r="F234" s="56"/>
       <c r="G234" s="21"/>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
@@ -11111,7 +11113,7 @@
       </c>
       <c r="D235" s="22"/>
       <c r="E235" s="22"/>
-      <c r="F235" s="54"/>
+      <c r="F235" s="56"/>
       <c r="G235" s="21"/>
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
@@ -11145,7 +11147,7 @@
       </c>
       <c r="D236" s="22"/>
       <c r="E236" s="22"/>
-      <c r="F236" s="54"/>
+      <c r="F236" s="56"/>
       <c r="G236" s="21"/>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
@@ -11179,7 +11181,7 @@
       </c>
       <c r="D237" s="22"/>
       <c r="E237" s="22"/>
-      <c r="F237" s="54"/>
+      <c r="F237" s="56"/>
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
       <c r="I237" s="22"/>
@@ -11207,7 +11209,7 @@
       <c r="C238" s="36"/>
       <c r="D238" s="22"/>
       <c r="E238" s="22"/>
-      <c r="F238" s="54"/>
+      <c r="F238" s="56"/>
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
@@ -11235,7 +11237,7 @@
       <c r="C239" s="36"/>
       <c r="D239" s="22"/>
       <c r="E239" s="22"/>
-      <c r="F239" s="54"/>
+      <c r="F239" s="56"/>
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="22"/>
@@ -11269,7 +11271,7 @@
       </c>
       <c r="D240" s="22"/>
       <c r="E240" s="22"/>
-      <c r="F240" s="54"/>
+      <c r="F240" s="56"/>
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
       <c r="I240" s="22"/>
@@ -11303,7 +11305,7 @@
       </c>
       <c r="D241" s="22"/>
       <c r="E241" s="22"/>
-      <c r="F241" s="54"/>
+      <c r="F241" s="56"/>
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
       <c r="I241" s="22"/>
@@ -11336,8 +11338,8 @@
         <v>96</v>
       </c>
       <c r="D242" s="22"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="54"/>
+      <c r="E242" s="56"/>
+      <c r="F242" s="56"/>
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
       <c r="I242" s="22"/>
@@ -11370,7 +11372,7 @@
         <v>401</v>
       </c>
       <c r="D243" s="32"/>
-      <c r="F243" s="54"/>
+      <c r="F243" s="56"/>
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
       <c r="I243" s="22"/>
@@ -12055,7 +12057,7 @@
       <c r="C264" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D264" s="52"/>
+      <c r="D264" s="54"/>
       <c r="E264" s="22"/>
       <c r="F264" s="22"/>
       <c r="G264" s="22"/>
@@ -12089,7 +12091,7 @@
       <c r="C265" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="D265" s="52"/>
+      <c r="D265" s="54"/>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
       <c r="G265" s="22"/>
@@ -12123,7 +12125,7 @@
       <c r="C266" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D266" s="52"/>
+      <c r="D266" s="54"/>
       <c r="E266" s="22"/>
       <c r="F266" s="22"/>
       <c r="G266" s="22"/>
@@ -12157,7 +12159,7 @@
       <c r="C267" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="D267" s="52"/>
+      <c r="D267" s="54"/>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
       <c r="G267" s="22"/>
@@ -12191,7 +12193,7 @@
       <c r="C268" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D268" s="52"/>
+      <c r="D268" s="54"/>
       <c r="E268" s="22"/>
       <c r="F268" s="22"/>
       <c r="G268" s="22"/>
@@ -12225,7 +12227,7 @@
       <c r="C269" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="D269" s="52"/>
+      <c r="D269" s="54"/>
       <c r="E269" s="22"/>
       <c r="F269" s="22"/>
       <c r="G269" s="22"/>
@@ -12259,7 +12261,7 @@
       <c r="C270" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D270" s="52"/>
+      <c r="D270" s="54"/>
       <c r="E270" s="22"/>
       <c r="F270" s="22"/>
       <c r="G270" s="22"/>
@@ -12293,7 +12295,7 @@
       <c r="C271" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="D271" s="52"/>
+      <c r="D271" s="54"/>
       <c r="E271" s="22"/>
       <c r="F271" s="22"/>
       <c r="G271" s="22"/>
@@ -12324,10 +12326,10 @@
       <c r="B272" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C272" s="50" t="s">
+      <c r="C272" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="D272" s="52"/>
+      <c r="D272" s="54"/>
       <c r="E272" s="22"/>
       <c r="F272" s="22"/>
       <c r="G272" s="22"/>
@@ -12361,7 +12363,7 @@
       <c r="C273" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="52"/>
+      <c r="D273" s="54"/>
       <c r="E273" s="22"/>
       <c r="F273" s="22"/>
       <c r="G273" s="22"/>
@@ -12395,7 +12397,7 @@
       <c r="C274" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="D274" s="52"/>
+      <c r="D274" s="54"/>
       <c r="E274" s="22"/>
       <c r="F274" s="22"/>
       <c r="G274" s="22"/>
@@ -12429,7 +12431,7 @@
       <c r="C275" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="D275" s="52"/>
+      <c r="D275" s="54"/>
       <c r="E275" s="22"/>
       <c r="F275" s="22"/>
       <c r="G275" s="22"/>
@@ -12463,7 +12465,7 @@
       <c r="C276" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="D276" s="52"/>
+      <c r="D276" s="54"/>
       <c r="E276" s="22"/>
       <c r="F276" s="22"/>
       <c r="G276" s="22"/>
@@ -12497,7 +12499,7 @@
       <c r="C277" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="D277" s="52"/>
+      <c r="D277" s="54"/>
       <c r="E277" s="22"/>
       <c r="F277" s="22"/>
       <c r="G277" s="22"/>
@@ -12531,7 +12533,7 @@
       <c r="C278" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="D278" s="52"/>
+      <c r="D278" s="54"/>
       <c r="E278" s="22"/>
       <c r="F278" s="22"/>
       <c r="G278" s="22"/>
@@ -12565,7 +12567,7 @@
       <c r="C279" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="D279" s="52"/>
+      <c r="D279" s="54"/>
       <c r="E279" s="22"/>
       <c r="F279" s="22"/>
       <c r="G279" s="22"/>
@@ -12599,7 +12601,7 @@
       <c r="C280" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="D280" s="52"/>
+      <c r="D280" s="54"/>
       <c r="E280" s="22"/>
       <c r="F280" s="22"/>
       <c r="G280" s="22"/>
@@ -13018,7 +13020,7 @@
       <c r="C293" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D293" s="54"/>
+      <c r="D293" s="56"/>
       <c r="E293" s="22"/>
       <c r="F293" s="22"/>
       <c r="G293" s="22"/>
@@ -13052,7 +13054,7 @@
       <c r="C294" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="D294" s="54"/>
+      <c r="D294" s="56"/>
       <c r="E294" s="22"/>
       <c r="F294" s="22"/>
       <c r="G294" s="22"/>
@@ -13086,7 +13088,7 @@
       <c r="C295" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="D295" s="54"/>
+      <c r="D295" s="56"/>
       <c r="E295" s="22"/>
       <c r="F295" s="22"/>
       <c r="G295" s="22"/>
@@ -13120,7 +13122,7 @@
       <c r="C296" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D296" s="54"/>
+      <c r="D296" s="56"/>
       <c r="E296" s="22"/>
       <c r="F296" s="22"/>
       <c r="G296" s="22"/>
@@ -13154,7 +13156,7 @@
       <c r="C297" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="D297" s="54"/>
+      <c r="D297" s="56"/>
       <c r="E297" s="22"/>
       <c r="F297" s="22"/>
       <c r="G297" s="22"/>
@@ -13188,7 +13190,7 @@
       <c r="C298" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D298" s="54"/>
+      <c r="D298" s="56"/>
       <c r="E298" s="22"/>
       <c r="F298" s="22"/>
       <c r="G298" s="22"/>
@@ -13222,7 +13224,7 @@
       <c r="C299" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="D299" s="54"/>
+      <c r="D299" s="56"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
       <c r="G299" s="22"/>
@@ -13256,7 +13258,7 @@
       <c r="C300" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="D300" s="54"/>
+      <c r="D300" s="56"/>
       <c r="E300" s="22"/>
       <c r="F300" s="22"/>
       <c r="G300" s="22"/>
@@ -13290,7 +13292,7 @@
       <c r="C301" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="D301" s="54"/>
+      <c r="D301" s="56"/>
       <c r="E301" s="22"/>
       <c r="F301" s="22"/>
       <c r="G301" s="22"/>
@@ -13324,7 +13326,7 @@
       <c r="C302" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="D302" s="54"/>
+      <c r="D302" s="56"/>
       <c r="E302" s="22"/>
       <c r="F302" s="22"/>
       <c r="G302" s="22"/>
@@ -13358,7 +13360,7 @@
       <c r="C303" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="D303" s="54"/>
+      <c r="D303" s="56"/>
       <c r="E303" s="22"/>
       <c r="F303" s="22"/>
       <c r="G303" s="22"/>
@@ -13392,7 +13394,7 @@
       <c r="C304" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="D304" s="54"/>
+      <c r="D304" s="56"/>
       <c r="E304" s="22"/>
       <c r="F304" s="22"/>
       <c r="G304" s="22"/>
@@ -13426,7 +13428,7 @@
       <c r="C305" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="D305" s="54"/>
+      <c r="D305" s="56"/>
       <c r="E305" s="22"/>
       <c r="F305" s="22"/>
       <c r="G305" s="22"/>
@@ -13460,7 +13462,7 @@
       <c r="C306" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D306" s="54"/>
+      <c r="D306" s="56"/>
       <c r="E306" s="22"/>
       <c r="F306" s="22"/>
       <c r="G306" s="22"/>
@@ -13494,7 +13496,7 @@
       <c r="C307" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="D307" s="54"/>
+      <c r="D307" s="56"/>
       <c r="E307" s="22"/>
       <c r="F307" s="22"/>
       <c r="G307" s="22"/>
@@ -13528,7 +13530,7 @@
       <c r="C308" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="D308" s="54"/>
+      <c r="D308" s="56"/>
       <c r="E308" s="22"/>
       <c r="F308" s="22"/>
       <c r="G308" s="22"/>
@@ -13562,7 +13564,7 @@
       <c r="C309" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="D309" s="54"/>
+      <c r="D309" s="56"/>
       <c r="E309" s="22"/>
       <c r="F309" s="22"/>
       <c r="G309" s="22"/>
@@ -13590,13 +13592,13 @@
       <c r="A310" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B310" s="56" t="s">
+      <c r="B310" s="58" t="s">
         <v>503</v>
       </c>
       <c r="C310" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D310" s="54"/>
+      <c r="D310" s="56"/>
       <c r="E310" s="22"/>
       <c r="F310" s="22"/>
       <c r="G310" s="22"/>
@@ -13630,7 +13632,7 @@
       <c r="C311" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="D311" s="54"/>
+      <c r="D311" s="56"/>
       <c r="E311" s="22"/>
       <c r="F311" s="22"/>
       <c r="G311" s="22"/>
@@ -13664,7 +13666,7 @@
       <c r="C312" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D312" s="54"/>
+      <c r="D312" s="56"/>
       <c r="E312" s="22"/>
       <c r="F312" s="22"/>
       <c r="G312" s="22"/>
@@ -13698,7 +13700,7 @@
       <c r="C313" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="D313" s="54"/>
+      <c r="D313" s="56"/>
       <c r="E313" s="22"/>
       <c r="F313" s="22"/>
       <c r="G313" s="22"/>
@@ -13732,7 +13734,7 @@
       <c r="C314" s="31" t="s">
         <v>510</v>
       </c>
-      <c r="D314" s="54"/>
+      <c r="D314" s="56"/>
       <c r="E314" s="22"/>
       <c r="F314" s="22"/>
       <c r="G314" s="22"/>
@@ -13766,7 +13768,7 @@
       <c r="C315" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="D315" s="54"/>
+      <c r="D315" s="56"/>
       <c r="E315" s="22"/>
       <c r="F315" s="22"/>
       <c r="G315" s="22"/>
@@ -13800,7 +13802,7 @@
       <c r="C316" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="D316" s="54"/>
+      <c r="D316" s="56"/>
       <c r="E316" s="22"/>
       <c r="F316" s="22"/>
       <c r="G316" s="22"/>
@@ -13834,7 +13836,7 @@
       <c r="C317" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D317" s="54"/>
+      <c r="D317" s="56"/>
       <c r="E317" s="22"/>
       <c r="F317" s="22"/>
       <c r="G317" s="22"/>
@@ -13868,7 +13870,7 @@
       <c r="C318" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="D318" s="54"/>
+      <c r="D318" s="56"/>
       <c r="E318" s="22"/>
       <c r="F318" s="22"/>
       <c r="G318" s="22"/>
@@ -13902,7 +13904,7 @@
       <c r="C319" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="D319" s="54"/>
+      <c r="D319" s="56"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
       <c r="G319" s="22"/>
@@ -13936,7 +13938,7 @@
       <c r="C320" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="D320" s="54"/>
+      <c r="D320" s="56"/>
       <c r="E320" s="22"/>
       <c r="F320" s="22"/>
       <c r="G320" s="22"/>
@@ -13970,7 +13972,7 @@
       <c r="C321" s="31" t="s">
         <v>521</v>
       </c>
-      <c r="D321" s="54"/>
+      <c r="D321" s="56"/>
       <c r="E321" s="22"/>
       <c r="F321" s="22"/>
       <c r="G321" s="22"/>
@@ -14004,7 +14006,7 @@
       <c r="C322" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D322" s="54"/>
+      <c r="D322" s="56"/>
       <c r="E322" s="22"/>
       <c r="F322" s="22"/>
       <c r="G322" s="22"/>
@@ -14038,7 +14040,7 @@
       <c r="C323" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D323" s="54"/>
+      <c r="D323" s="56"/>
       <c r="E323" s="22"/>
       <c r="F323" s="22"/>
       <c r="G323" s="22"/>
@@ -14072,7 +14074,7 @@
       <c r="C324" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="D324" s="53" t="s">
+      <c r="D324" s="55" t="s">
         <v>241</v>
       </c>
       <c r="E324" s="22"/>
@@ -14108,7 +14110,7 @@
       <c r="C325" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="D325" s="54"/>
+      <c r="D325" s="56"/>
       <c r="E325" s="22"/>
       <c r="F325" s="22"/>
       <c r="G325" s="22"/>
@@ -14142,7 +14144,7 @@
       <c r="C326" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="D326" s="53" t="s">
+      <c r="D326" s="55" t="s">
         <v>241</v>
       </c>
       <c r="E326" s="22"/>
@@ -14178,7 +14180,7 @@
       <c r="C327" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D327" s="54"/>
+      <c r="D327" s="56"/>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
       <c r="G327" s="22"/>
@@ -14212,7 +14214,7 @@
       <c r="C328" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D328" s="54"/>
+      <c r="D328" s="56"/>
       <c r="E328" s="22"/>
       <c r="F328" s="22"/>
       <c r="G328" s="22"/>
@@ -14246,7 +14248,7 @@
       <c r="C329" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="D329" s="54"/>
+      <c r="D329" s="56"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
       <c r="G329" s="22"/>
@@ -14280,7 +14282,7 @@
       <c r="C330" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="D330" s="54"/>
+      <c r="D330" s="56"/>
       <c r="E330" s="22"/>
       <c r="F330" s="22"/>
       <c r="G330" s="22"/>
@@ -14314,7 +14316,7 @@
       <c r="C331" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="D331" s="54"/>
+      <c r="D331" s="56"/>
       <c r="E331" s="22"/>
       <c r="F331" s="22"/>
       <c r="G331" s="22"/>
@@ -14348,7 +14350,7 @@
       <c r="C332" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="D332" s="54"/>
+      <c r="D332" s="56"/>
       <c r="E332" s="22"/>
       <c r="F332" s="22"/>
       <c r="G332" s="22"/>
@@ -14376,7 +14378,7 @@
       <c r="A333" s="41"/>
       <c r="B333" s="35"/>
       <c r="C333" s="36"/>
-      <c r="D333" s="54"/>
+      <c r="D333" s="56"/>
       <c r="E333" s="22"/>
       <c r="F333" s="22"/>
       <c r="G333" s="22"/>
@@ -14432,7 +14434,7 @@
       <c r="A335" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B335" s="56" t="s">
+      <c r="B335" s="58" t="s">
         <v>539</v>
       </c>
       <c r="C335" s="31" t="s">
@@ -14466,7 +14468,7 @@
       <c r="A336" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B336" s="56" t="s">
+      <c r="B336" s="58" t="s">
         <v>541</v>
       </c>
       <c r="C336" s="31" t="s">
@@ -14500,7 +14502,7 @@
       <c r="A337" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B337" s="56" t="s">
+      <c r="B337" s="58" t="s">
         <v>543</v>
       </c>
       <c r="C337" s="31" t="s">
@@ -14534,7 +14536,7 @@
       <c r="A338" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B338" s="56" t="s">
+      <c r="B338" s="58" t="s">
         <v>545</v>
       </c>
       <c r="C338" s="31" t="s">
@@ -14568,7 +14570,7 @@
       <c r="A339" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B339" s="56" t="s">
+      <c r="B339" s="58" t="s">
         <v>547</v>
       </c>
       <c r="C339" s="31" t="s">
@@ -14602,7 +14604,7 @@
       <c r="A340" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B340" s="56" t="s">
+      <c r="B340" s="58" t="s">
         <v>549</v>
       </c>
       <c r="C340" s="31" t="s">
@@ -14903,7 +14905,7 @@
         <v>559</v>
       </c>
       <c r="D349" s="22"/>
-      <c r="E349" s="54"/>
+      <c r="E349" s="56"/>
       <c r="F349" s="22"/>
       <c r="G349" s="22"/>
       <c r="H349" s="22"/>
@@ -14937,7 +14939,7 @@
         <v>383</v>
       </c>
       <c r="D350" s="22"/>
-      <c r="E350" s="54"/>
+      <c r="E350" s="56"/>
       <c r="F350" s="22"/>
       <c r="G350" s="22"/>
       <c r="H350" s="22"/>
@@ -14971,7 +14973,7 @@
         <v>52</v>
       </c>
       <c r="D351" s="22"/>
-      <c r="E351" s="54"/>
+      <c r="E351" s="56"/>
       <c r="F351" s="22"/>
       <c r="G351" s="22"/>
       <c r="H351" s="22"/>
@@ -15617,7 +15619,7 @@
         <v>594</v>
       </c>
       <c r="D370" s="22"/>
-      <c r="E370" s="54"/>
+      <c r="E370" s="56"/>
       <c r="F370" s="22"/>
       <c r="G370" s="22"/>
       <c r="H370" s="22"/>
@@ -15651,7 +15653,7 @@
         <v>596</v>
       </c>
       <c r="D371" s="22"/>
-      <c r="E371" s="54"/>
+      <c r="E371" s="56"/>
       <c r="F371" s="22"/>
       <c r="G371" s="22"/>
       <c r="H371" s="22"/>
@@ -15685,7 +15687,7 @@
         <v>594</v>
       </c>
       <c r="D372" s="22"/>
-      <c r="E372" s="54"/>
+      <c r="E372" s="56"/>
       <c r="F372" s="22"/>
       <c r="G372" s="22"/>
       <c r="H372" s="22"/>
@@ -15719,7 +15721,7 @@
         <v>599</v>
       </c>
       <c r="D373" s="22"/>
-      <c r="E373" s="54"/>
+      <c r="E373" s="56"/>
       <c r="F373" s="22"/>
       <c r="G373" s="22"/>
       <c r="H373" s="22"/>
@@ -15753,7 +15755,7 @@
         <v>318</v>
       </c>
       <c r="D374" s="22"/>
-      <c r="E374" s="54"/>
+      <c r="E374" s="56"/>
       <c r="F374" s="22"/>
       <c r="G374" s="22"/>
       <c r="H374" s="22"/>
@@ -15787,7 +15789,7 @@
         <v>602</v>
       </c>
       <c r="D375" s="22"/>
-      <c r="E375" s="54"/>
+      <c r="E375" s="56"/>
       <c r="F375" s="22"/>
       <c r="G375" s="22"/>
       <c r="H375" s="22"/>
@@ -15821,7 +15823,7 @@
         <v>604</v>
       </c>
       <c r="D376" s="22"/>
-      <c r="E376" s="54"/>
+      <c r="E376" s="56"/>
       <c r="F376" s="22"/>
       <c r="G376" s="22"/>
       <c r="H376" s="22"/>
@@ -15855,7 +15857,7 @@
         <v>606</v>
       </c>
       <c r="D377" s="22"/>
-      <c r="E377" s="54"/>
+      <c r="E377" s="56"/>
       <c r="F377" s="22"/>
       <c r="G377" s="22"/>
       <c r="H377" s="22"/>
@@ -15889,7 +15891,7 @@
         <v>107</v>
       </c>
       <c r="D378" s="22"/>
-      <c r="E378" s="54"/>
+      <c r="E378" s="56"/>
       <c r="F378" s="22"/>
       <c r="G378" s="22"/>
       <c r="H378" s="22"/>
@@ -15923,7 +15925,7 @@
         <v>609</v>
       </c>
       <c r="D379" s="22"/>
-      <c r="E379" s="54"/>
+      <c r="E379" s="56"/>
       <c r="F379" s="22"/>
       <c r="G379" s="22"/>
       <c r="H379" s="22"/>
@@ -15957,7 +15959,7 @@
         <v>610</v>
       </c>
       <c r="D380" s="22"/>
-      <c r="E380" s="54"/>
+      <c r="E380" s="56"/>
       <c r="F380" s="22"/>
       <c r="G380" s="22"/>
       <c r="H380" s="22"/>
@@ -15991,7 +15993,7 @@
         <v>79</v>
       </c>
       <c r="D381" s="22"/>
-      <c r="E381" s="54"/>
+      <c r="E381" s="56"/>
       <c r="F381" s="22"/>
       <c r="G381" s="22"/>
       <c r="H381" s="22"/>
@@ -16025,7 +16027,7 @@
         <v>613</v>
       </c>
       <c r="D382" s="22"/>
-      <c r="E382" s="54"/>
+      <c r="E382" s="56"/>
       <c r="F382" s="22"/>
       <c r="G382" s="22"/>
       <c r="H382" s="22"/>
@@ -16059,7 +16061,7 @@
         <v>614</v>
       </c>
       <c r="D383" s="22"/>
-      <c r="E383" s="54"/>
+      <c r="E383" s="56"/>
       <c r="F383" s="22"/>
       <c r="G383" s="22"/>
       <c r="H383" s="22"/>
@@ -16093,7 +16095,7 @@
         <v>383</v>
       </c>
       <c r="D384" s="22"/>
-      <c r="E384" s="54"/>
+      <c r="E384" s="56"/>
       <c r="F384" s="22"/>
       <c r="G384" s="22"/>
       <c r="H384" s="22"/>
@@ -16127,7 +16129,7 @@
         <v>514</v>
       </c>
       <c r="D385" s="22"/>
-      <c r="E385" s="54"/>
+      <c r="E385" s="56"/>
       <c r="F385" s="22"/>
       <c r="G385" s="22"/>
       <c r="H385" s="22"/>
@@ -16161,7 +16163,7 @@
         <v>618</v>
       </c>
       <c r="D386" s="22"/>
-      <c r="E386" s="54"/>
+      <c r="E386" s="56"/>
       <c r="F386" s="22"/>
       <c r="G386" s="22"/>
       <c r="H386" s="22"/>
@@ -16195,7 +16197,7 @@
         <v>383</v>
       </c>
       <c r="D387" s="22"/>
-      <c r="E387" s="54"/>
+      <c r="E387" s="56"/>
       <c r="F387" s="22"/>
       <c r="G387" s="22"/>
       <c r="H387" s="22"/>
@@ -16229,7 +16231,7 @@
         <v>621</v>
       </c>
       <c r="D388" s="22"/>
-      <c r="E388" s="54"/>
+      <c r="E388" s="56"/>
       <c r="F388" s="22"/>
       <c r="G388" s="22"/>
       <c r="H388" s="22"/>
@@ -16263,7 +16265,7 @@
         <v>60</v>
       </c>
       <c r="D389" s="22"/>
-      <c r="E389" s="54"/>
+      <c r="E389" s="56"/>
       <c r="F389" s="22"/>
       <c r="G389" s="22"/>
       <c r="H389" s="22"/>
@@ -16297,7 +16299,7 @@
         <v>318</v>
       </c>
       <c r="D390" s="22"/>
-      <c r="E390" s="54"/>
+      <c r="E390" s="56"/>
       <c r="F390" s="22"/>
       <c r="G390" s="22"/>
       <c r="H390" s="22"/>
@@ -16331,7 +16333,7 @@
         <v>318</v>
       </c>
       <c r="D391" s="22"/>
-      <c r="E391" s="54"/>
+      <c r="E391" s="56"/>
       <c r="F391" s="22"/>
       <c r="G391" s="22"/>
       <c r="H391" s="22"/>
@@ -16365,7 +16367,7 @@
         <v>625</v>
       </c>
       <c r="D392" s="22"/>
-      <c r="E392" s="54"/>
+      <c r="E392" s="56"/>
       <c r="F392" s="22"/>
       <c r="G392" s="22"/>
       <c r="H392" s="22"/>
@@ -16399,7 +16401,7 @@
         <v>360</v>
       </c>
       <c r="D393" s="22"/>
-      <c r="E393" s="54"/>
+      <c r="E393" s="56"/>
       <c r="F393" s="22"/>
       <c r="G393" s="22"/>
       <c r="H393" s="22"/>
@@ -16433,7 +16435,7 @@
         <v>195</v>
       </c>
       <c r="D394" s="22"/>
-      <c r="E394" s="54"/>
+      <c r="E394" s="56"/>
       <c r="F394" s="22"/>
       <c r="G394" s="22"/>
       <c r="H394" s="22"/>
@@ -16467,7 +16469,7 @@
         <v>451</v>
       </c>
       <c r="D395" s="22"/>
-      <c r="E395" s="54"/>
+      <c r="E395" s="56"/>
       <c r="F395" s="22"/>
       <c r="G395" s="22"/>
       <c r="H395" s="22"/>
@@ -16501,7 +16503,7 @@
         <v>630</v>
       </c>
       <c r="D396" s="22"/>
-      <c r="E396" s="54"/>
+      <c r="E396" s="56"/>
       <c r="F396" s="22"/>
       <c r="G396" s="22"/>
       <c r="H396" s="22"/>
@@ -16527,7 +16529,7 @@
     <row r="397" customHeight="1" spans="3:26">
       <c r="C397" s="36"/>
       <c r="D397" s="22"/>
-      <c r="E397" s="54"/>
+      <c r="E397" s="56"/>
       <c r="F397" s="22"/>
       <c r="G397" s="22"/>
       <c r="H397" s="22"/>
@@ -16555,7 +16557,7 @@
       <c r="B398" s="35"/>
       <c r="C398" s="36"/>
       <c r="D398" s="22"/>
-      <c r="E398" s="54"/>
+      <c r="E398" s="56"/>
       <c r="F398" s="22"/>
       <c r="G398" s="22"/>
       <c r="H398" s="22"/>
@@ -16582,7 +16584,7 @@
       <c r="A399" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B399" s="56" t="s">
+      <c r="B399" s="58" t="s">
         <v>632</v>
       </c>
       <c r="C399" s="31" t="s">
@@ -16614,7 +16616,7 @@
       <c r="A400" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B400" s="56" t="s">
+      <c r="B400" s="58" t="s">
         <v>634</v>
       </c>
       <c r="C400" s="31" t="s">
@@ -16646,7 +16648,7 @@
       <c r="A401" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B401" s="56" t="s">
+      <c r="B401" s="58" t="s">
         <v>636</v>
       </c>
       <c r="C401" s="31" t="s">
@@ -16678,7 +16680,7 @@
       <c r="A402" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B402" s="56" t="s">
+      <c r="B402" s="58" t="s">
         <v>637</v>
       </c>
       <c r="C402" s="31" t="s">
@@ -16710,7 +16712,7 @@
       <c r="A403" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B403" s="56" t="s">
+      <c r="B403" s="58" t="s">
         <v>638</v>
       </c>
       <c r="C403" s="31" t="s">
@@ -16742,7 +16744,7 @@
       <c r="A404" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B404" s="56" t="s">
+      <c r="B404" s="58" t="s">
         <v>640</v>
       </c>
       <c r="C404" s="31" t="s">
@@ -16774,7 +16776,7 @@
       <c r="A405" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B405" s="56" t="s">
+      <c r="B405" s="58" t="s">
         <v>641</v>
       </c>
       <c r="C405" s="31" t="s">
@@ -16806,7 +16808,7 @@
       <c r="A406" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B406" s="56" t="s">
+      <c r="B406" s="58" t="s">
         <v>642</v>
       </c>
       <c r="C406" s="31" t="s">
@@ -16838,7 +16840,7 @@
       <c r="A407" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B407" s="56" t="s">
+      <c r="B407" s="58" t="s">
         <v>643</v>
       </c>
       <c r="C407" s="31" t="s">
@@ -16870,7 +16872,7 @@
       <c r="A408" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B408" s="56" t="s">
+      <c r="B408" s="58" t="s">
         <v>644</v>
       </c>
       <c r="C408" s="31" t="s">
@@ -17016,7 +17018,7 @@
       <c r="A413" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B413" s="56" t="s">
+      <c r="B413" s="58" t="s">
         <v>649</v>
       </c>
       <c r="C413" s="31" t="s">
